--- a/output/memory_errors.xlsx
+++ b/output/memory_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,6 +671,48 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>152553695195_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>153705491080_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>155955558946_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>156891076678_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>158744647869_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>159611473390_0.05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/memory_errors.xlsx
+++ b/output/memory_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,6 +713,125 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>162931832732_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>163312796395_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>163742646182_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>164994220498_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>167363375131_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>169795007828_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>172105195392_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>172234660899_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>173681894913_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>175561900398_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>176011681697_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>176440382500_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>177800318827_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>185520363474_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>186268470967_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>186497993296_0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>186701615084_0.05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
